--- a/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,29</t>
+          <t>1,17; 6,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,43</t>
+          <t>0,47; 4,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 22,16</t>
+          <t>6,71; 22,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,97</t>
+          <t>0,5; 4,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,28</t>
+          <t>1,5; 8,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,41</t>
+          <t>1,38; 6,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 20,61</t>
+          <t>6,3; 20,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,58</t>
+          <t>0,45; 2,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,71</t>
+          <t>1,91; 5,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,29</t>
+          <t>1,37; 4,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 17,98</t>
+          <t>8,69; 19,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,03</t>
+          <t>0,82; 7,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,74</t>
+          <t>0,39; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 21,06</t>
+          <t>5,74; 21,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,47</t>
+          <t>0,38; 3,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,82</t>
+          <t>0,42; 4,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 23,43</t>
+          <t>10,0; 23,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,9</t>
+          <t>0,68; 4,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,75</t>
+          <t>0,21; 2,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,95</t>
+          <t>0,61; 3,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 19,87</t>
+          <t>9,48; 19,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,17</t>
+          <t>0,45; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,7</t>
+          <t>0,3; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 24,42</t>
+          <t>9,19; 23,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,42</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,34; 41,36</t>
+          <t>17,09; 41,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,78</t>
+          <t>0,19; 1,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,86</t>
+          <t>0,32; 1,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,11</t>
+          <t>0,22; 2,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,33; 27,03</t>
+          <t>14,09; 26,92</t>
         </is>
       </c>
     </row>
@@ -1144,47 +1145,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,56</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,56</t>
+          <t>0,16; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 26,31</t>
+          <t>13,84; 25,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,48</t>
+          <t>0,68; 3,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,9</t>
+          <t>0,39; 3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,49</t>
+          <t>0,17; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 11,9</t>
+          <t>0,87; 11,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,52</t>
+          <t>0,37; 1,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,23</t>
+          <t>0,25; 1,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 16,64</t>
+          <t>3,09; 16,43</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1290,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,12</t>
+          <t>0,21; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 28,14</t>
+          <t>11,68; 28,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1310,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,4</t>
+          <t>0,33; 2,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,2; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 21,98</t>
+          <t>14,24; 22,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1330,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,8</t>
+          <t>0,36; 1,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,57</t>
+          <t>0,34; 1,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,29</t>
+          <t>14,53; 22,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 61,58</t>
+          <t>3,91; 71,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,38</t>
+          <t>0,14; 1,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,57</t>
+          <t>0,17; 1,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 27,13</t>
+          <t>17,66; 26,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,23</t>
+          <t>0,12; 1,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,33</t>
+          <t>0,15; 1,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 27,74</t>
+          <t>17,84; 28,2</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,07</t>
+          <t>0,26; 1,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,3</t>
+          <t>0,44; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,45</t>
+          <t>0,55; 1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 20,45</t>
+          <t>13,99; 20,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,24</t>
+          <t>0,45; 1,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,67</t>
+          <t>0,76; 1,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,47</t>
+          <t>0,61; 1,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 18,02</t>
+          <t>6,6; 17,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,01</t>
+          <t>0,45; 0,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,35</t>
+          <t>0,71; 1,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,66; 1,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,76</t>
+          <t>8,55; 17,67</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7716</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8674</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5879</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15437</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10863</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16945</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6049</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2984; 16689</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1037; 10178</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4173; 13746</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1042; 10018</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3095; 16820</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2857; 13494</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4535; 14774</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2187; 12043</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8821; 26342</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5841; 18793</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11659; 25600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3724</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10246</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7483</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6825</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1610; 13760</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9704</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>889; 8731</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3338; 12679</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7425</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>908; 8164</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1021; 11501</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6580; 15356</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2853; 17444</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1078; 12661</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2887; 14503</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11744; 24257</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13091</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9340</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22431</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5983</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1837; 9384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1002; 8909</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7636; 19870</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5279</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5794</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2116</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5493; 13443</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>894; 8475</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1908; 10790</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>999; 9212</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16227; 31010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33318</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7972</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14294</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10071</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47612</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6341</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5851</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1033; 10960</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24556; 44978</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3205; 16246</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2030; 16090</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>901; 7295</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2946; 39590</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4600; 20171</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2880; 16751</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2935; 13721</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15948; 84815</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13348</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5802</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>32711</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8018</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7127</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>46059</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7796</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>807; 7458</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8436; 20693</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1956; 14092</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>981; 10292</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25877; 40273</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3251; 16932</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2966; 14620</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36902; 56481</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4318</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42913</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4318</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>46702</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1879</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>707; 12870</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8121</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1062; 11003</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1259; 11837</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>34455; 52360</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8101</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1052; 9760</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1259; 12051</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>38028; 60136</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>78781</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>118178</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>196959</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5024; 20538</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9457; 26765</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10489; 28411</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>65927; 94730</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10459; 28867</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19003; 40394</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14179; 33959</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58414; 159121</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18946; 41642</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>33055; 63576</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>27902; 55169</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>116066; 239701</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
